--- a/Versions.xlsx
+++ b/Versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syrek.w\Documents\UiPath\JIRA_Migration_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83951B3F-A1D9-4B61-8FD2-F294515C48FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238641A0-D191-462B-A78E-76D8856DA801}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Versions.xlsx
+++ b/Versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syrek.w\Documents\UiPath\JIRA_Migration_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238641A0-D191-462B-A78E-76D8856DA801}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBAB2A3-33A6-493C-AE31-B698B7BB3DEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Test version 7</t>
-  </si>
-  <si>
-    <t>Test version 9</t>
-  </si>
-  <si>
-    <t>Test version 10</t>
-  </si>
-  <si>
-    <t>Test version 11</t>
-  </si>
-  <si>
-    <t>Test version 12</t>
-  </si>
-  <si>
-    <t>Test version 13</t>
-  </si>
-  <si>
-    <t>Test version 14</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TEST FOLDERS</t>
   </si>
@@ -52,7 +31,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>aaaa</t>
+    <t>Unscheduled</t>
   </si>
 </sst>
 </file>
@@ -893,71 +872,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12975</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1</v>
+      </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10015</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10016</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
